--- a/4_Firmware/Plasma_Gen_MCU_PinMap_20171227.xlsx
+++ b/4_Firmware/Plasma_Gen_MCU_PinMap_20171227.xlsx
@@ -16,12 +16,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map V1.0'!$B$15:$T$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pin-map V2.0'!$B$15:$T$79</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual" calcCompleted="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="326">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1284,6 +1284,30 @@
   </si>
   <si>
     <t>Plasma V2.0 External</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULL-UP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULL-UP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAS_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas input detection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAS_IN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2059,71 +2083,71 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2651,10 +2675,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="158"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -2673,10 +2697,10 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="149"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -2696,10 +2720,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="149"/>
+      <c r="C5" s="160"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -2721,10 +2745,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="149"/>
+      <c r="C6" s="160"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2741,10 +2765,10 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="151"/>
+      <c r="C7" s="162"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2813,28 +2837,28 @@
     </row>
     <row r="13" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152" t="s">
+      <c r="C14" s="151"/>
+      <c r="D14" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="152" t="s">
+      <c r="E14" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="153"/>
-      <c r="G14" s="142" t="s">
+      <c r="F14" s="163"/>
+      <c r="G14" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="143"/>
-      <c r="I14" s="142" t="s">
+      <c r="H14" s="154"/>
+      <c r="I14" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="145"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="156"/>
     </row>
     <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
@@ -2843,7 +2867,7 @@
       <c r="C15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="159"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="14" t="s">
         <v>179</v>
       </c>
@@ -2882,10 +2906,10 @@
       <c r="D16" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="154" t="s">
+      <c r="E16" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="155"/>
+      <c r="F16" s="147"/>
       <c r="G16" s="41"/>
       <c r="H16" s="97"/>
       <c r="I16" s="111"/>
@@ -3074,10 +3098,10 @@
       <c r="D22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="156" t="s">
+      <c r="E22" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="157"/>
+      <c r="F22" s="149"/>
       <c r="G22" s="39" t="s">
         <v>206</v>
       </c>
@@ -3242,10 +3266,10 @@
       <c r="D27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="160" t="s">
+      <c r="E27" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="161"/>
+      <c r="F27" s="143"/>
       <c r="G27" s="24"/>
       <c r="H27" s="101"/>
       <c r="I27" s="24"/>
@@ -3264,10 +3288,10 @@
       <c r="D28" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="160" t="s">
+      <c r="E28" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="161"/>
+      <c r="F28" s="143"/>
       <c r="G28" s="24"/>
       <c r="H28" s="101"/>
       <c r="I28" s="24"/>
@@ -3422,10 +3446,10 @@
       <c r="D33" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="160" t="s">
+      <c r="E33" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="161"/>
+      <c r="F33" s="143"/>
       <c r="G33" s="24"/>
       <c r="H33" s="101"/>
       <c r="I33" s="24"/>
@@ -3444,10 +3468,10 @@
       <c r="D34" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="160" t="s">
+      <c r="E34" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="161"/>
+      <c r="F34" s="143"/>
       <c r="G34" s="24"/>
       <c r="H34" s="101"/>
       <c r="I34" s="24"/>
@@ -3844,10 +3868,10 @@
       <c r="D46" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="160" t="s">
+      <c r="E46" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="161"/>
+      <c r="F46" s="143"/>
       <c r="G46" s="24"/>
       <c r="H46" s="101"/>
       <c r="I46" s="24"/>
@@ -3866,10 +3890,10 @@
       <c r="D47" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="160" t="s">
+      <c r="E47" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="161"/>
+      <c r="F47" s="143"/>
       <c r="G47" s="24"/>
       <c r="H47" s="101"/>
       <c r="I47" s="24"/>
@@ -4374,10 +4398,10 @@
       <c r="D62" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="160" t="s">
+      <c r="E62" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="161"/>
+      <c r="F62" s="143"/>
       <c r="G62" s="24"/>
       <c r="H62" s="101"/>
       <c r="I62" s="24"/>
@@ -4396,10 +4420,10 @@
       <c r="D63" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="160" t="s">
+      <c r="E63" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="161"/>
+      <c r="F63" s="143"/>
       <c r="G63" s="24"/>
       <c r="H63" s="101"/>
       <c r="I63" s="24"/>
@@ -4792,10 +4816,10 @@
       <c r="D75" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="160" t="s">
+      <c r="E75" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="161"/>
+      <c r="F75" s="143"/>
       <c r="G75" s="24" t="s">
         <v>224</v>
       </c>
@@ -4892,10 +4916,10 @@
       <c r="D78" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="160" t="s">
+      <c r="E78" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="161"/>
+      <c r="F78" s="143"/>
       <c r="G78" s="24"/>
       <c r="H78" s="101"/>
       <c r="I78" s="24"/>
@@ -4914,10 +4938,10 @@
       <c r="D79" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="162" t="s">
+      <c r="E79" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="163"/>
+      <c r="F79" s="145"/>
       <c r="G79" s="25"/>
       <c r="H79" s="107"/>
       <c r="I79" s="25"/>
@@ -4977,21 +5001,6 @@
   </sheetData>
   <autoFilter ref="B15:T79"/>
   <mergeCells count="23">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="B3:C3"/>
@@ -5000,6 +5009,21 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5011,8 +5035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5057,10 +5081,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="158"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -5082,10 +5106,10 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="149"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -5108,10 +5132,10 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="149"/>
+      <c r="C5" s="160"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -5136,10 +5160,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="149"/>
+      <c r="C6" s="160"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5157,10 +5181,10 @@
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="151"/>
+      <c r="C7" s="162"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -5235,35 +5259,35 @@
     </row>
     <row r="13" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152" t="s">
+      <c r="C14" s="151"/>
+      <c r="D14" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="152" t="s">
+      <c r="E14" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="153"/>
-      <c r="G14" s="142" t="s">
+      <c r="F14" s="163"/>
+      <c r="G14" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="143"/>
-      <c r="I14" s="142" t="s">
+      <c r="H14" s="154"/>
+      <c r="I14" s="153" t="s">
         <v>311</v>
       </c>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="142" t="s">
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="153" t="s">
         <v>319</v>
       </c>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="145"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="156"/>
     </row>
     <row r="15" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
@@ -5272,7 +5296,7 @@
       <c r="C15" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="159"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="95" t="s">
         <v>179</v>
       </c>
@@ -5326,10 +5350,10 @@
       <c r="D16" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="154" t="s">
+      <c r="E16" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="155"/>
+      <c r="F16" s="147"/>
       <c r="G16" s="41"/>
       <c r="H16" s="97"/>
       <c r="I16" s="111"/>
@@ -5578,10 +5602,10 @@
       <c r="D22" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="156" t="s">
+      <c r="E22" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="157"/>
+      <c r="F22" s="149"/>
       <c r="G22" s="39" t="s">
         <v>101</v>
       </c>
@@ -5627,31 +5651,31 @@
       <c r="F23" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H23" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>40</v>
+      <c r="G23" s="126" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="127" t="s">
+        <v>321</v>
+      </c>
+      <c r="I23" s="128" t="s">
+        <v>325</v>
+      </c>
+      <c r="J23" s="129" t="s">
+        <v>323</v>
+      </c>
+      <c r="K23" s="129" t="s">
+        <v>324</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>40</v>
+      <c r="N23" s="128" t="s">
+        <v>322</v>
+      </c>
+      <c r="O23" s="129" t="s">
+        <v>323</v>
+      </c>
+      <c r="P23" s="129" t="s">
+        <v>324</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="15"/>
@@ -5801,10 +5825,10 @@
       <c r="D27" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="160" t="s">
+      <c r="E27" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="161"/>
+      <c r="F27" s="143"/>
       <c r="G27" s="24"/>
       <c r="H27" s="101"/>
       <c r="I27" s="24"/>
@@ -5828,10 +5852,10 @@
       <c r="D28" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="160" t="s">
+      <c r="E28" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="161"/>
+      <c r="F28" s="143"/>
       <c r="G28" s="24"/>
       <c r="H28" s="101"/>
       <c r="I28" s="24"/>
@@ -6043,10 +6067,10 @@
       <c r="D33" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="160" t="s">
+      <c r="E33" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="161"/>
+      <c r="F33" s="143"/>
       <c r="G33" s="24"/>
       <c r="H33" s="101"/>
       <c r="I33" s="24"/>
@@ -6070,10 +6094,10 @@
       <c r="D34" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="160" t="s">
+      <c r="E34" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="161"/>
+      <c r="F34" s="143"/>
       <c r="G34" s="24"/>
       <c r="H34" s="101"/>
       <c r="I34" s="24"/>
@@ -6600,10 +6624,10 @@
       <c r="D46" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="160" t="s">
+      <c r="E46" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="161"/>
+      <c r="F46" s="143"/>
       <c r="G46" s="24"/>
       <c r="H46" s="101"/>
       <c r="I46" s="24"/>
@@ -6627,10 +6651,10 @@
       <c r="D47" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="160" t="s">
+      <c r="E47" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="161"/>
+      <c r="F47" s="143"/>
       <c r="G47" s="24"/>
       <c r="H47" s="101"/>
       <c r="I47" s="24"/>
@@ -7304,10 +7328,10 @@
       <c r="D62" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="160" t="s">
+      <c r="E62" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="161"/>
+      <c r="F62" s="143"/>
       <c r="G62" s="24"/>
       <c r="H62" s="101"/>
       <c r="I62" s="24"/>
@@ -7331,10 +7355,10 @@
       <c r="D63" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="160" t="s">
+      <c r="E63" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="161"/>
+      <c r="F63" s="143"/>
       <c r="G63" s="24"/>
       <c r="H63" s="101"/>
       <c r="I63" s="24"/>
@@ -7853,10 +7877,10 @@
       <c r="D75" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="160" t="s">
+      <c r="E75" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="161"/>
+      <c r="F75" s="143"/>
       <c r="G75" s="24" t="s">
         <v>224</v>
       </c>
@@ -7949,7 +7973,7 @@
         <v>37</v>
       </c>
       <c r="H77" s="100" t="s">
-        <v>32</v>
+        <v>320</v>
       </c>
       <c r="I77" s="116" t="s">
         <v>207</v>
@@ -7988,10 +8012,10 @@
       <c r="D78" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="160" t="s">
+      <c r="E78" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="161"/>
+      <c r="F78" s="143"/>
       <c r="G78" s="24"/>
       <c r="H78" s="101"/>
       <c r="I78" s="24"/>
@@ -8015,10 +8039,10 @@
       <c r="D79" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="162" t="s">
+      <c r="E79" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="163"/>
+      <c r="F79" s="145"/>
       <c r="G79" s="25"/>
       <c r="H79" s="107"/>
       <c r="I79" s="25"/>
@@ -8083,17 +8107,12 @@
   </sheetData>
   <autoFilter ref="B15:T79"/>
   <mergeCells count="24">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="D14:D15"/>
@@ -8101,12 +8120,17 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
